--- a/evaluation_results.xlsx
+++ b/evaluation_results.xlsx
@@ -157,21 +157,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -181,49 +170,125 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font/>
+    <font>
+      <i/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDBDBD"/>
+        <bgColor rgb="FFBDBDBD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border/>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="4" fontId="2" numFmtId="1" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="2" fillId="4" fontId="2" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -456,2035 +521,2092 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6">
         <v>24.0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="6">
         <v>132.0</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>156.0</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="7">
         <v>5.5</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="7">
         <v>0.00641</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="7">
         <v>0.594939</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="10">
         <v>26.0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="10">
         <v>108.0</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="10">
         <v>134.0</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="11">
         <v>4.153846</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="11">
         <v>0.007463</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="11">
         <v>0.657725</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>32.0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <v>59.0</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>91.0</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="7">
         <v>1.964286</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="7">
         <v>0.054945</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="7">
         <v>0.781862</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="15">
         <v>36.0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="15">
         <v>65.0</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="15">
         <v>101.0</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="16">
         <v>1.90625</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="16">
         <v>0.039604</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="16">
         <v>0.768855</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <v>4.0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <v>4.0</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>8.0</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="7">
         <v>1.0</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="7">
         <v>0.125</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="7">
         <v>0.811278</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="10">
         <v>4.0</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="10">
         <v>4.0</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="10">
         <v>8.0</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="11">
         <v>1.0</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="11">
         <v>0.125</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="11">
         <v>0.811278</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <v>5.0</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="6">
         <v>3.0</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <v>8.0</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="7">
         <v>0.5</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="7">
         <v>0.375</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="7">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="15">
         <v>5.0</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="15">
         <v>3.0</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="15">
         <v>8.0</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="16">
         <v>0.5</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="16">
         <v>0.375</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="16">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <v>4.0</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="6">
         <v>6.0</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="6">
         <v>10.0</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="7">
         <v>1.5</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="7">
         <v>0.1</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="7">
         <v>1.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="10">
         <v>4.0</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="10">
         <v>6.0</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="10">
         <v>10.0</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="11">
         <v>1.5</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="11">
         <v>0.1</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="11">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="6">
         <v>6.0</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="6">
         <v>3.0</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="6">
         <v>9.0</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="7">
         <v>1.0</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="7">
         <v>0.444444</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="7">
         <v>1.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="15">
         <v>6.0</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="15">
         <v>3.0</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="15">
         <v>9.0</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="16">
         <v>1.0</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="16">
         <v>0.444444</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="16">
         <v>1.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="6">
         <v>9.0</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="6">
         <v>27.0</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="6">
         <v>36.0</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="7">
         <v>3.0</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="7">
         <v>0.027778</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="7">
         <v>0.99901</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="10">
         <v>9.0</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="10">
         <v>27.0</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="10">
         <v>36.0</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="11">
         <v>3.0</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="11">
         <v>0.027778</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="11">
         <v>0.99901</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="6">
         <v>11.0</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="6">
         <v>8.0</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="6">
         <v>19.0</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="7">
         <v>1.6</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="7">
         <v>0.368421</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="7">
         <v>1.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="15">
         <v>11.0</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="15">
         <v>8.0</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="15">
         <v>19.0</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="16">
         <v>1.6</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="16">
         <v>0.368421</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="16">
         <v>1.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="6">
         <v>70.0</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="6">
         <v>475.0</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="6">
         <v>545.0</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="7">
         <v>6.785714</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="7">
         <v>0.001835</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="7">
         <v>0.822896</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="10">
         <v>81.0</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="10">
         <v>437.0</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="10">
         <v>518.0</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="11">
         <v>5.876712</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="11">
         <v>0.017375</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="11">
         <v>0.855209</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="6">
         <v>112.0</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="6">
         <v>237.0</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="6">
         <v>349.0</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="7">
         <v>2.237624</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="7">
         <v>0.025788</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="7">
         <v>1.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="15">
         <v>107.0</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="15">
         <v>309.0</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="15">
         <v>416.0</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="16">
         <v>3.195652</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="16">
         <v>0.036058</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="16">
         <v>1.0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="6">
         <v>82.0</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="6">
         <v>902.0</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="6">
         <v>984.0</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="7">
         <v>11.0</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="7">
         <v>0.001016</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="7">
         <v>0.639814</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="10">
         <v>90.0</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="10">
         <v>875.0</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="10">
         <v>965.0</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="11">
         <v>10.235294</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="11">
         <v>0.006218</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="11">
         <v>0.647563</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="6">
         <v>133.0</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="6">
         <v>379.0</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="6">
         <v>512.0</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="7">
         <v>2.952381</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="7">
         <v>0.015625</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="7">
         <v>0.71839</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="15">
         <v>148.0</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="15">
         <v>429.0</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="15">
         <v>577.0</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="16">
         <v>3.188976</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="16">
         <v>0.031196</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="16">
         <v>1.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="6">
         <v>62.0</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="6">
         <v>699.0</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="6">
         <v>761.0</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="7">
         <v>11.274194</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="7">
         <v>0.001314</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="7">
         <v>0.495572</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="10">
         <v>71.0</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="10">
         <v>659.0</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="10">
         <v>730.0</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="11">
         <v>9.647059</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="11">
         <v>0.005479</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="11">
         <v>0.509387</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="6">
         <v>97.0</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="6">
         <v>202.0</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="6">
         <v>299.0</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="7">
         <v>2.271605</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="7">
         <v>0.050167</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="7">
         <v>0.918296</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="15">
         <v>108.0</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="15">
         <v>390.0</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="15">
         <v>498.0</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="16">
         <v>4.179775</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="16">
         <v>0.03012</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="16">
         <v>0.521743</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="6">
         <v>65.0</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="6">
         <v>522.0</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="6">
         <v>587.0</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="7">
         <v>8.030769</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="7">
         <v>0.001704</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="7">
         <v>0.821804</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="10">
         <v>70.0</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="10">
         <v>500.0</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="10">
         <v>570.0</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="11">
         <v>7.323529</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="11">
         <v>0.005263</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="11">
         <v>0.827141</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="6">
         <v>103.0</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="6">
         <v>202.0</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="6">
         <v>305.0</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="7">
         <v>2.120482</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="7">
         <v>0.045902</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="7">
         <v>1.0</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="15">
         <v>110.0</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="15">
         <v>245.0</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="15">
         <v>355.0</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="16">
         <v>2.52381</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="16">
         <v>0.050704</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="16">
         <v>1.0</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="6">
         <v>74.0</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="6">
         <v>573.0</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="6">
         <v>647.0</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="7">
         <v>7.743243</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="7">
         <v>0.001546</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="7">
         <v>0.794657</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="10">
         <v>82.0</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="10">
         <v>546.0</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="10">
         <v>628.0</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="11">
         <v>7.105263</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="11">
         <v>0.011146</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="11">
         <v>0.815382</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="3" t="s">
+      <c r="A36" s="12"/>
+      <c r="B36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="6">
         <v>114.0</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="6">
         <v>240.0</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="6">
         <v>354.0</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="7">
         <v>2.188119</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="7">
         <v>0.025424</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="7">
         <v>0.980834</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="15">
         <v>117.0</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="15">
         <v>347.0</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="15">
         <v>464.0</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="16">
         <v>3.192308</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="16">
         <v>0.028017</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="16">
         <v>0.946395</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="6">
         <v>26.0</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="6">
         <v>119.0</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="6">
         <v>145.0</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="7">
         <v>4.576923</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="7">
         <v>0.006897</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="7">
         <v>0.744209</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="3" t="s">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="10">
         <v>27.0</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="10">
         <v>108.0</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="10">
         <v>135.0</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="11">
         <v>4.0</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="11">
         <v>0.007407</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="11">
         <v>0.761839</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="12"/>
+      <c r="B40" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="6">
         <v>40.0</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="6">
         <v>67.0</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="6">
         <v>107.0</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="7">
         <v>1.783784</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="7">
         <v>0.028037</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="7">
         <v>0.833601</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="3" t="s">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="15">
         <v>40.0</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="15">
         <v>70.0</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="15">
         <v>110.0</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="16">
         <v>1.794872</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="16">
         <v>0.018182</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="16">
         <v>0.82563</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="6">
         <v>8.0</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="6">
         <v>25.0</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="6">
         <v>33.0</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="7">
         <v>3.125</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="7">
         <v>0.030303</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="7">
         <v>0.709074</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="10">
         <v>10.0</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="10">
         <v>12.0</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="10">
         <v>22.0</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="11">
         <v>1.571429</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="11">
         <v>0.181818</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="11">
         <v>0.834202</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="3" t="s">
+      <c r="A44" s="12"/>
+      <c r="B44" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="6">
         <v>11.0</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="6">
         <v>11.0</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="6">
         <v>22.0</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="7">
         <v>1.666667</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="7">
         <v>0.272727</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="7">
         <v>0.858673</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="3" t="s">
+      <c r="A45" s="13"/>
+      <c r="B45" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="15">
         <v>11.0</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="15">
         <v>11.0</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="15">
         <v>22.0</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="16">
         <v>1.666667</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="16">
         <v>0.272727</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="16">
         <v>0.858673</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="6">
         <v>18.0</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="6">
         <v>64.0</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="6">
         <v>82.0</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="7">
         <v>3.555556</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="7">
         <v>0.012195</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="7">
         <v>0.861214</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="3" t="s">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="10">
         <v>19.0</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="10">
         <v>61.0</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="10">
         <v>80.0</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="11">
         <v>3.333333</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="11">
         <v>0.025</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="11">
         <v>0.861672</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="12"/>
+      <c r="B48" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="6">
         <v>25.0</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="6">
         <v>49.0</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="6">
         <v>74.0</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="7">
         <v>2.0</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="7">
         <v>0.027027</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="7">
         <v>0.875</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="3" t="s">
+      <c r="A49" s="13"/>
+      <c r="B49" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="15">
         <v>25.0</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="15">
         <v>48.0</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="15">
         <v>73.0</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="16">
         <v>1.958333</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="16">
         <v>0.027397</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="16">
         <v>0.863147</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="6">
         <v>42.0</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="6">
         <v>599.0</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="6">
         <v>641.0</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="7">
         <v>14.261905</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="7">
         <v>0.00156</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50" s="7">
         <v>0.319323</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="3" t="s">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="10">
         <v>45.0</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="10">
         <v>504.0</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="10">
         <v>549.0</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="11">
         <v>11.2</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="11">
         <v>0.001821</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51" s="11">
         <v>0.360721</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="3" t="s">
+      <c r="A52" s="12"/>
+      <c r="B52" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="6">
         <v>69.0</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="6">
         <v>218.0</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="6">
         <v>287.0</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="7">
         <v>3.253731</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="7">
         <v>0.010453</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52" s="7">
         <v>0.479962</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="3" t="s">
+      <c r="A53" s="13"/>
+      <c r="B53" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="15">
         <v>76.0</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="15">
         <v>215.0</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="15">
         <v>291.0</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="16">
         <v>2.945205</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="16">
         <v>0.013746</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="16">
         <v>0.489882</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="6">
         <v>33.0</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="6">
         <v>268.0</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="6">
         <v>301.0</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="7">
         <v>8.121212</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="7">
         <v>0.003322</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H54" s="7">
         <v>0.533658</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="3" t="s">
+      <c r="A55" s="8"/>
+      <c r="B55" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="10">
         <v>33.0</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="10">
         <v>268.0</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="10">
         <v>301.0</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="11">
         <v>8.121212</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="11">
         <v>0.003322</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55" s="11">
         <v>0.533658</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="B56" s="3" t="s">
+      <c r="A56" s="12"/>
+      <c r="B56" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="6">
         <v>52.0</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="6">
         <v>109.0</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="6">
         <v>161.0</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="7">
         <v>2.377778</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="7">
         <v>0.043478</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56" s="7">
         <v>0.666445</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="B57" s="3" t="s">
+      <c r="A57" s="13"/>
+      <c r="B57" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="15">
         <v>65.0</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="15">
         <v>112.0</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="15">
         <v>177.0</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="16">
         <v>1.946429</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="16">
         <v>0.045198</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="16">
         <v>0.66291</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="6">
         <v>11.0</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="6">
         <v>22.0</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="6">
         <v>33.0</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="7">
         <v>2.0</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58" s="7">
         <v>0.030303</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H58" s="7">
         <v>0.769576</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="3" t="s">
+      <c r="A59" s="8"/>
+      <c r="B59" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="10">
         <v>11.0</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="10">
         <v>22.0</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="10">
         <v>33.0</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F59" s="11">
         <v>2.0</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="11">
         <v>0.030303</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H59" s="11">
         <v>0.769576</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="B60" s="3" t="s">
+      <c r="A60" s="12"/>
+      <c r="B60" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="6">
         <v>14.0</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="6">
         <v>16.0</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="6">
         <v>30.0</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="7">
         <v>1.4</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" s="7">
         <v>0.266667</v>
       </c>
-      <c r="H60" s="5">
+      <c r="H60" s="7">
         <v>1.0</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="B61" s="3" t="s">
+      <c r="A61" s="13"/>
+      <c r="B61" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="15">
         <v>14.0</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="15">
         <v>16.0</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="15">
         <v>30.0</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61" s="16">
         <v>1.4</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="16">
         <v>0.266667</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61" s="16">
         <v>1.0</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="6">
         <v>16.0</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="6">
         <v>91.0</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="6">
         <v>107.0</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="7">
         <v>6.0</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62" s="7">
         <v>0.018692</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H62" s="7">
         <v>0.906782</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="3" t="s">
+      <c r="A63" s="8"/>
+      <c r="B63" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="10">
         <v>17.0</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="10">
         <v>59.0</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="10">
         <v>76.0</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63" s="11">
         <v>3.625</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63" s="11">
         <v>0.026316</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63" s="11">
         <v>1.0</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="3" t="s">
+      <c r="A64" s="12"/>
+      <c r="B64" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="6">
         <v>22.0</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="6">
         <v>32.0</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="6">
         <v>54.0</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="7">
         <v>2.066667</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G64" s="7">
         <v>0.148148</v>
       </c>
-      <c r="H64" s="5">
+      <c r="H64" s="7">
         <v>0.9629</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="3" t="s">
+      <c r="A65" s="13"/>
+      <c r="B65" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="15">
         <v>24.0</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="15">
         <v>27.0</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="15">
         <v>51.0</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65" s="16">
         <v>1.466667</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G65" s="16">
         <v>0.176471</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65" s="16">
         <v>0.976021</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="7">
         <v>40.0</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="7">
         <v>397.6</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="7">
         <v>437.6</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="7">
         <v>9.852455</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G66" s="7">
         <v>0.002676</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H66" s="7">
         <v>0.616558</v>
       </c>
-      <c r="I66" s="7" t="s">
+      <c r="I66" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="3" t="s">
+      <c r="A67" s="8"/>
+      <c r="B67" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="11">
         <v>46.4</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="11">
         <v>264.3</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="11">
         <v>310.7</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67" s="11">
         <v>6.075152</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67" s="11">
         <v>0.014671</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H67" s="11">
         <v>0.702803</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="B68" s="3" t="s">
+      <c r="A68" s="12"/>
+      <c r="B68" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="7">
         <v>61.3</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="7">
         <v>116.2</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68" s="7">
         <v>177.5</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="7">
         <v>2.325362</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G68" s="7">
         <v>0.074922</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H68" s="7">
         <v>0.9377</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="B69" s="3" t="s">
+      <c r="A69" s="13"/>
+      <c r="B69" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="16">
         <v>66.0</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="16">
         <v>127.9</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69" s="16">
         <v>193.9</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69" s="16">
         <v>2.353037</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G69" s="16">
         <v>0.075206</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H69" s="16">
         <v>0.87778</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="7">
         <v>24.083333</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="7">
         <v>60.9375</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="7">
         <v>85.020833</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="7">
         <v>2.632537</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G70" s="7">
         <v>0.117095</v>
       </c>
-      <c r="H70" s="5">
+      <c r="H70" s="7">
         <v>0.829186</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="B71" s="3" t="s">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="11">
         <v>24.645833</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="11">
         <v>58.161458</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="11">
         <v>82.807292</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F71" s="11">
         <v>2.485911</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G71" s="11">
         <v>0.127096</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H71" s="11">
         <v>0.829069</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="B72" s="3" t="s">
+      <c r="A72" s="12"/>
+      <c r="B72" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="7">
         <v>32.755208</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="7">
         <v>30.932292</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="7">
         <v>63.6875</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="7">
         <v>1.304823</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G72" s="7">
         <v>0.255334</v>
       </c>
-      <c r="H72" s="5">
+      <c r="H72" s="7">
         <v>0.860466</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="B73" s="3" t="s">
+      <c r="A73" s="13"/>
+      <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="16">
         <v>33.692708</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="16">
         <v>30.739583</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E73" s="16">
         <v>64.432292</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F73" s="16">
         <v>1.250828</v>
       </c>
-      <c r="G73" s="5">
+      <c r="G73" s="16">
         <v>0.260349</v>
       </c>
-      <c r="H73" s="5">
+      <c r="H73" s="16">
         <v>0.863398</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="7">
         <v>47.25</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="7">
         <v>604.427083</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74" s="7">
         <v>651.677083</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F74" s="7">
         <v>12.466572</v>
       </c>
-      <c r="G74" s="5">
+      <c r="G74" s="7">
         <v>0.001881</v>
       </c>
-      <c r="H74" s="5">
+      <c r="H74" s="7">
         <v>0.595512</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="B75" s="3" t="s">
+      <c r="A75" s="8"/>
+      <c r="B75" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="11">
         <v>50.347917</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="11">
         <v>563.358333</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="11">
         <v>613.70625</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F75" s="11">
         <v>11.068601</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G75" s="11">
         <v>0.002905</v>
       </c>
-      <c r="H75" s="5">
+      <c r="H75" s="11">
         <v>0.615185</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="B76" s="3" t="s">
+      <c r="A76" s="12"/>
+      <c r="B76" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="7">
         <v>78.06875</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="7">
         <v>140.60625</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="7">
         <v>218.675</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76" s="7">
         <v>2.043179</v>
       </c>
-      <c r="G76" s="5">
+      <c r="G76" s="7">
         <v>0.05643</v>
       </c>
-      <c r="H76" s="5">
+      <c r="H76" s="7">
         <v>0.914105</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="B77" s="3" t="s">
+      <c r="A77" s="13"/>
+      <c r="B77" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="16">
         <v>99.522917</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="16">
         <v>166.05625</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="16">
         <v>265.579167</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F77" s="16">
         <v>1.911449</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G77" s="16">
         <v>0.047865</v>
       </c>
-      <c r="H77" s="5">
+      <c r="H77" s="16">
         <v>0.924778</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="7">
         <v>13.25</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="7">
         <v>54.595833</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="7">
         <v>67.845833</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F78" s="7">
         <v>4.205078</v>
       </c>
-      <c r="G78" s="5">
+      <c r="G78" s="7">
         <v>0.04055</v>
       </c>
-      <c r="H78" s="5">
+      <c r="H78" s="7">
         <v>0.401853</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="B79" s="3" t="s">
+      <c r="A79" s="8"/>
+      <c r="B79" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="11">
         <v>14.39375</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="11">
         <v>39.547917</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="11">
         <v>53.941667</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F79" s="11">
         <v>2.883318</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G79" s="11">
         <v>0.067246</v>
       </c>
-      <c r="H79" s="5">
+      <c r="H79" s="11">
         <v>0.485438</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="B80" s="3" t="s">
+      <c r="A80" s="12"/>
+      <c r="B80" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="7">
         <v>18.904167</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="7">
         <v>20.204167</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="7">
         <v>39.108333</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F80" s="7">
         <v>1.45903</v>
       </c>
-      <c r="G80" s="5">
+      <c r="G80" s="7">
         <v>0.215243</v>
       </c>
-      <c r="H80" s="5">
+      <c r="H80" s="7">
         <v>0.599069</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="B81" s="3" t="s">
+      <c r="A81" s="13"/>
+      <c r="B81" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="16">
         <v>19.579167</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="16">
         <v>19.385417</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="16">
         <v>38.964583</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F81" s="16">
         <v>1.280199</v>
       </c>
-      <c r="G81" s="5">
+      <c r="G81" s="16">
         <v>0.238349</v>
       </c>
-      <c r="H81" s="5">
+      <c r="H81" s="16">
         <v>0.635214</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="7">
         <v>25.875</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="7">
         <v>89.333333</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="7">
         <v>115.208333</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F82" s="7">
         <v>3.502427</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G82" s="7">
         <v>0.044847</v>
       </c>
-      <c r="H82" s="5">
+      <c r="H82" s="7">
         <v>0.781665</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="B83" s="3" t="s">
+      <c r="A83" s="8"/>
+      <c r="B83" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="11">
         <v>27.755208</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="11">
         <v>68.614583</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83" s="11">
         <v>96.369792</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F83" s="11">
         <v>2.69327</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G83" s="11">
         <v>0.072175</v>
       </c>
-      <c r="H83" s="5">
+      <c r="H83" s="11">
         <v>0.791285</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="B84" s="3" t="s">
+      <c r="A84" s="12"/>
+      <c r="B84" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="7">
         <v>36.291667</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="7">
         <v>41.9375</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="7">
         <v>78.229167</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F84" s="7">
         <v>1.459573</v>
       </c>
-      <c r="G84" s="5">
+      <c r="G84" s="7">
         <v>0.175955</v>
       </c>
-      <c r="H84" s="5">
+      <c r="H84" s="7">
         <v>0.883821</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="B85" s="3" t="s">
+      <c r="A85" s="8"/>
+      <c r="B85" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="11">
         <v>38.098958</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="11">
         <v>39.71875</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E85" s="11">
         <v>77.817708</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F85" s="11">
         <v>1.311888</v>
       </c>
-      <c r="G85" s="5">
+      <c r="G85" s="11">
         <v>0.192956</v>
       </c>
-      <c r="H85" s="5">
+      <c r="H85" s="11">
         <v>0.893723</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A34:A37"/>
@@ -2493,14 +2615,20 @@
     <mergeCell ref="A46:A49"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A54:A57"/>
-    <mergeCell ref="I66:I85"/>
-    <mergeCell ref="I1:I65"/>
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="A62:A65"/>
     <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A70:A73"/>
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="A78:A81"/>
+    <mergeCell ref="I1:I65"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="I66:I85"/>
     <mergeCell ref="A82:A85"/>
   </mergeCells>
   <drawing r:id="rId1"/>
@@ -2515,322 +2643,322 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="22">
         <v>14.102564</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="23">
         <v>41.666667</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="22">
         <v>35.25641</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="22">
         <v>0.0</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="23">
         <v>9.090909</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="23">
         <v>9.090909</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="23">
         <v>33.333333</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="23">
         <v>33.333333</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="23">
         <v>33.333333</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="22">
         <v>28.971963</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="22">
         <v>49.53271</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="23">
         <v>52.336449</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="22">
         <v>0.0</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="22">
         <v>0.0</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="22">
         <v>0.0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="22">
         <v>10.0</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="22">
         <v>10.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="22">
         <v>0.0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="22">
         <v>47.222222</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="22">
         <v>47.222222</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="22">
         <v>4.954128</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="22">
         <v>35.963303</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="22">
         <v>23.669725</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="22">
         <v>1.930894</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="22">
         <v>47.96748</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="22">
         <v>41.361789</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="22">
         <v>4.073587</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="22">
         <v>60.709593</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="22">
         <v>34.55979</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="22">
         <v>2.896082</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="22">
         <v>48.040886</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="22">
         <v>39.522998</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="22">
         <v>2.936631</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="22">
         <v>45.285935</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="22">
         <v>28.284389</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="22">
         <v>6.896552</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="22">
         <v>26.206897</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="22">
         <v>24.137931</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="22">
         <v>2.439024</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="22">
         <v>9.756098</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="22">
         <v>10.97561</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="22">
         <v>14.352574</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="22">
         <v>55.226209</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="22">
         <v>54.602184</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="22">
         <v>0.0</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="22">
         <v>46.511628</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="22">
         <v>41.196013</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="22">
         <v>28.999086</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="22">
         <v>59.437843</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="22">
         <v>55.690128</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="22">
         <v>2.603529</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="22">
         <v>25.091889</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="22">
         <v>24.215878</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="22">
         <v>5.826633</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="22">
         <v>66.44427</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="22">
         <v>59.246815</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="22">
         <v>20.493767</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="22">
         <v>42.35706</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="22">
         <v>42.568937</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="22">
         <v>16.351718</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="22">
         <v>32.097649</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="22">
         <v>32.454792</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2844,322 +2972,322 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="22">
         <v>24.475524</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="22">
         <v>64.285714</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="23">
         <v>65.340909</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="22">
         <v>0.0</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="23">
         <v>30.0</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="23">
         <v>30.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="23">
         <v>49.714286</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="22">
         <v>46.666667</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="22">
         <v>46.666667</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="22">
         <v>39.583333</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="22">
         <v>65.555556</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="23">
         <v>75.555556</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="22">
         <v>0.0</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="22">
         <v>50.0</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="22">
         <v>50.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="22">
         <v>0.0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="22">
         <v>33.333333</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="22">
         <v>33.333333</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="22">
         <v>0.0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="22">
         <v>46.666667</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="22">
         <v>46.666667</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="22">
         <v>13.395818</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="22">
         <v>67.024492</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="22">
         <v>52.906178</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="22">
         <v>6.951872</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="22">
         <v>73.160173</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="22">
         <v>71.009306</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="22">
         <v>14.432382</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="22">
         <v>79.851287</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="22">
         <v>62.926171</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="22">
         <v>8.806626</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="22">
         <v>73.595532</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="22">
         <v>68.573253</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="22">
         <v>8.239184</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="22">
         <v>71.741572</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="22">
         <v>58.77299</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="22">
         <v>12.605042</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="22">
         <v>61.026573</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="22">
         <v>60.784314</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="22">
         <v>6.25</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="22">
         <v>43.75</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="22">
         <v>44.921875</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="22">
         <v>21.469115</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="22">
         <v>77.185857</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="22">
         <v>79.349144</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="22">
         <v>0.0</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="22">
         <v>70.721393</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="22">
         <v>76.032783</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="22">
         <v>38.338698</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="22">
         <v>76.398149</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="22">
         <v>76.117256</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="22">
         <v>5.569752</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="22">
         <v>50.434765</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="22">
         <v>52.485846</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="22">
         <v>11.213755</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="22">
         <v>83.610743</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="22">
         <v>84.667407</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="22">
         <v>31.43248</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="22">
         <v>65.303143</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="22">
         <v>69.555882</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="22">
         <v>23.102766</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="22">
         <v>58.32683</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="22">
         <v>62.543472</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3173,322 +3301,322 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="22">
         <v>0.105922</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="23">
         <v>4.884793</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="22">
         <v>3.340786</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="22">
         <v>0.0</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="23">
         <v>24.375</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="23">
         <v>24.375</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="22">
         <v>15.625</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="23">
         <v>25.0</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="23">
         <v>25.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="22">
         <v>0.776942</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="22">
         <v>13.19224</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="23">
         <v>16.078431</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="22">
         <v>0.0</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="22">
         <v>28.571429</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="22">
         <v>28.571429</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="22">
         <v>0.0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="22">
         <v>38.271605</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="22">
         <v>38.271605</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="22">
         <v>0.0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="22">
         <v>35.037594</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="22">
         <v>35.037594</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="22">
         <v>1.556822</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="22">
         <v>2.399713</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="22">
         <v>3.428574</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="22">
         <v>0.520665</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="22">
         <v>1.46236</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="22">
         <v>3.021028</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="22">
         <v>0.417087</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="22">
         <v>4.891744</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="22">
         <v>2.884432</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="22">
         <v>0.356565</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="22">
         <v>4.427349</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="22">
         <v>4.908427</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="22">
         <v>0.961576</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="22">
         <v>2.39151</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="22">
         <v>2.651262</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="22">
         <v>0.05144</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="22">
         <v>2.128764</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="22">
         <v>1.136364</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="22">
         <v>1.296296</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="22">
         <v>1.501502</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="22">
         <v>1.538982</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="22">
         <v>0.026184</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="22">
         <v>0.890679</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="22">
         <v>1.220468</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="22">
         <v>0.0</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="22">
         <v>4.028986</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="22">
         <v>4.201507</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="22">
         <v>1.202689</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="22">
         <v>7.244027</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="22">
         <v>7.272446</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="22">
         <v>1.132796</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="22">
         <v>15.657289</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="22">
         <v>16.2254</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="22">
         <v>0.102585</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="22">
         <v>5.465134</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="22">
         <v>4.607029</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="22">
         <v>2.782415</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="22">
         <v>18.207649</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="22">
         <v>20.615857</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="22">
         <v>2.861118</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="22">
         <v>13.726369</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="22">
         <v>15.506321</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3502,322 +3630,322 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="22">
         <v>-10.553266</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="22">
         <v>-31.418872</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="22">
         <v>-29.2325</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="22">
         <v>0.0</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="22">
         <v>-29.941747</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="22">
         <v>-29.941747</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="22">
         <v>-17.646667</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="22">
         <v>-21.097704</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="22">
         <v>-21.097704</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="22">
         <v>-10.280127</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="22">
         <v>-6.18878</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="22">
         <v>-7.635681</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="22">
         <v>0.0</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="22">
         <v>100.0</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="22">
         <v>100.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="22">
         <v>0.0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="22">
         <v>0.0</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="22">
         <v>0.0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="22">
         <v>-0.099071</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="22">
         <v>-0.099071</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="22">
         <v>-3.926791</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="22">
         <v>-21.522108</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="22">
         <v>-21.522108</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="22">
         <v>-1.211119</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="22">
         <v>-12.281042</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="22">
         <v>-56.295434</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="22">
         <v>-2.787808</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="22">
         <v>-85.300345</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="22">
         <v>-5.280977</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="22">
         <v>-0.649482</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="22">
         <v>-21.683546</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="22">
         <v>-21.683546</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="22">
         <v>-2.608071</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="22">
         <v>-23.428623</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="22">
         <v>-19.094752</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="22">
         <v>-2.368918</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="22">
         <v>-12.011638</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="22">
         <v>-10.94066</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="22">
         <v>-0.053165</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="22">
         <v>-1.600788</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="22">
         <v>-0.224418</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="22">
         <v>-12.96425</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="22">
         <v>-50.30604</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="22">
         <v>-53.412427</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="22">
         <v>0.0</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="22">
         <v>-24.882275</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="22">
         <v>-24.219891</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="22">
         <v>-13.988088</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="22">
         <v>-52.086111</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="22">
         <v>-42.367712</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="22">
         <v>0.01404</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="22">
         <v>-3.772483</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="22">
         <v>-4.125993</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="22">
         <v>-3.303614</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="22">
         <v>-53.499076</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="22">
         <v>-55.29129</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="22">
         <v>-20.799668</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="22">
         <v>-49.076406</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="22">
         <v>-58.071139</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="22">
         <v>-1.230701</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="22">
         <v>-13.068985</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="22">
         <v>-14.335794</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
